--- a/SoThu_Excel/DmChuong TieuMuc.xlsx
+++ b/SoThu_Excel/DmChuong TieuMuc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,13 @@
     <sheet name="PhanLoaiTieuMuc" sheetId="3" r:id="rId3"/>
     <sheet name="imprChuong" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet5" sheetId="8" r:id="rId8"/>
+    <sheet name="DaTach_CH" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">DaTach_CH!$B$1:$F$270</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PhanLoaiNhomChuong!$A$1:$J$270</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PhanLoaiTieuMuc!$A$1:$H$251</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$270</definedName>
@@ -81,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3736" uniqueCount="1360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4109" uniqueCount="1405">
   <si>
     <t>MaChuong</t>
   </si>
@@ -4862,16 +4867,154 @@
   <si>
     <t>ID</t>
   </si>
+  <si>
+    <t>TTÐB</t>
+  </si>
+  <si>
+    <t>TTMÐN</t>
+  </si>
+  <si>
+    <t>GTGT - TTDB - TN - TNDN - KHI - KHAC</t>
+  </si>
+  <si>
+    <t>BVMT</t>
+  </si>
+  <si>
+    <t>IdNhomChuong</t>
+  </si>
+  <si>
+    <t>TenNhomChuong</t>
+  </si>
+  <si>
+    <t>Ds_MaChuong</t>
+  </si>
+  <si>
+    <t>UserUpdate</t>
+  </si>
+  <si>
+    <t>LastUpdate</t>
+  </si>
+  <si>
+    <t>TatCa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            </t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">557,757,857                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">402,405,411,412,413,414,416,417,418,419,421,422,423,424,425,426,427,428,429,435,437,439,440,441,442,448,483,505,509,510,511,512,513,514,515,558,560,563,564,599, 605,612,614,618,619,620,622,623,624,625,626,635,637,640,683,709,710,711,712,713,714,715,758,760,799,800,802,805,809,810,811,812,813,814,819,820,822,823,860,989                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">001, 002, 003, 004, 005, 009, 010, 011, 012, 013, 014, 016, 017, 018, 019, 021, 022, 023, 024, 025, 026, 027, 035, 036, 037, 038, 039, 040, 041, 042, 044, 045, 046, 048, 049, 050, 083, 088, 100, 107, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 145, 146, 147, 148, 149, 150, 158, 160, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 179, 180, 181, 399                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">151,152,161,162,551,552,561,562                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">153, 154, 159, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 553, 554, 555, 556, 559, 716, 717, 718, 719, 720, 721, 722, 723, 724, 754, 755, 756, 759, 824, 825, 826, 854, 856                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                             </t>
+  </si>
+  <si>
+    <t>IdNhomTieuMuc</t>
+  </si>
+  <si>
+    <t>TenNhomTieuMuc</t>
+  </si>
+  <si>
+    <t>Ds_MaTieuMuc</t>
+  </si>
+  <si>
+    <t>Scan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1701,1702,1704,4931                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1057,1153,1705,1761,4913,4941                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1603,4254,4268,4272,4944                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3801,3802,3803,3804,3805,3806,3807,3849                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1251,1252,1253,1254,1255,1256,1257,1258,1299,4921,4922,4923,4924                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2801                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3301,3851 , 3853 , 3854 , 3855 , 3856 , 3857 , 3899                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1301,1302,1303,1304,1305,1349                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1003,1004,1005,1015                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2106, 2107, 2108, 2111, 2146, 2147, 2148, 2151, 2152, 2153, 2157, 2162, 2163, 2164, 2165, 2166, 2167, 2206, 2207, 2208, 2211, 2251, 2254, 2255, 2262, 2263, 2264, 2265, 2266, 2267, 2301, 2302, 2303, 2316, 2323, 2351, 2352, 2353, 2361, 2362, 2363, 2364, 2365, 2366, 2367, 2368, 2404, 2416, 2418, 2421, 2422, 2452, 2453, 2455, 2456, 2457, 2458, 2504, 2505, 2506, 2507, 2508, 2511, 2512, 2513, 2561, 2565, 2566, 2567, 2618, 2624, 2625, 2626, 2627, 2628, 2631, 2632, 2633, 2634, 2635, 2636, 2637, 2638, 2652, 2663, 2664, 2665, 2701, 2703, 2706, 2707, 2715, 2716, 2717, 2718, 2721, 2722, 2751, 2752, 2763, 2766, 2767, 2768, 2771, 2772, 2773, 2774, 2802, 2803, 2804, 2805, 2815, 2824, 2825, 2826, 2827, 2828, 2831, 2852, 2853, 2854, 2861, 2862, 2863, 2864, 2865, 2866, 2867, 2868, 2871, 2872, 3001, 3002, 3007, 3064, 3065, 3066, 3067, 3068, 3071, 3072, 3073, 3074                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1601,1602,1649                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1401,1405,1406,1407,1408,1411,1449                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1551,1552,1553,1555,1556,1557,1558,1561,1562,1563,1599,4927                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1001,1006,1007,1008,1012,1014,1049,4917                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1052,1053,1055,1056,1099,4918                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1751,1753,1754,1755,1756,1757,1758,1762,1763,1764,1765,1766,4934                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3601,3602,3603,3604,3605,3606,3607,3608,3649                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTGT,1701,1702,1704,4931, TTDB ,1751,1753, 1754,1755,1756,1757, 1758,1762,1763,1764,1765, 1766,4934, TNDN, 1052,1053,1055,1056,1099, 4918, TN, 1551,1552,1553,1555,1556, 1557, 1558,1561, 1562,1563,1599,4927,KHI, 3801,3802, 3803,3804,3805,3806, 3807,3849, KHAC, 1603, 4254, 4268, 4272,4944                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001 , 2002 , 2003 , 2004 , 2005 , 2006 , 2007 , 2008 , 2009 , 2011 , 2012 , 2013 , 2019 , 2021 , 2041 , 2042 , 2043 , 2044 , 2045 , 2046 , 2047 , 2048 , 2049                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                              </t>
+  </si>
+  <si>
+    <t>NhomCH</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>gggg</t>
+  </si>
+  <si>
+    <t>fffff</t>
+  </si>
+  <si>
+    <t>rrrrr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="000"/>
+  </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5019,7 +5162,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5290,7 +5433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5500,6 +5643,22 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5808,16 +5967,16 @@
       <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="42.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="74.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="74.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7190,7 +7349,7 @@
       <c r="D103" s="3"/>
       <c r="E103" s="23"/>
     </row>
-    <row r="104" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>176</v>
       </c>
@@ -8571,7 +8730,7 @@
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
     </row>
-    <row r="209" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A209" s="4">
         <v>564</v>
       </c>
@@ -9407,20 +9566,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J271"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="54.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="54.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.75" style="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.25" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="48" customWidth="1"/>
-    <col min="5" max="5" width="85.875" style="48" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="48" customWidth="1"/>
+    <col min="5" max="5" width="85.85546875" style="48" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="63" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.25" customWidth="1"/>
-    <col min="10" max="10" width="63.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="10" max="10" width="63.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -18060,7 +18219,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="271" spans="1:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:J270">
     <sortState ref="A2:G270">
@@ -18079,16 +18238,16 @@
       <selection activeCell="A47" sqref="A47:A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="72" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="63" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.5" style="63" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="72" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.42578125" style="63" customWidth="1"/>
     <col min="4" max="4" width="15" style="63" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.75" style="63" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.375" style="63"/>
-    <col min="7" max="7" width="19.125" style="63" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="17.375" style="63"/>
+    <col min="5" max="5" width="62.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="63"/>
+    <col min="7" max="7" width="19.140625" style="63" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="17.42578125" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
@@ -18114,7 +18273,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="49">
         <v>1701</v>
       </c>
@@ -18162,7 +18321,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="67">
         <v>1704</v>
       </c>
@@ -18369,7 +18528,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="67">
         <v>1252</v>
       </c>
@@ -18393,7 +18552,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="67">
         <v>1253</v>
       </c>
@@ -18417,7 +18576,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="67">
         <v>1254</v>
       </c>
@@ -18561,7 +18720,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="67">
         <v>4921</v>
       </c>
@@ -18582,7 +18741,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="67">
         <v>4922</v>
       </c>
@@ -19275,7 +19434,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="67">
         <v>2108</v>
       </c>
@@ -19659,7 +19818,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A69" s="67">
         <v>2207</v>
       </c>
@@ -19875,7 +20034,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A78" s="67">
         <v>2265</v>
       </c>
@@ -19923,7 +20082,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A80" s="67">
         <v>2267</v>
       </c>
@@ -19947,7 +20106,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A81" s="67">
         <v>2301</v>
       </c>
@@ -20715,7 +20874,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A113" s="67">
         <v>2511</v>
       </c>
@@ -21099,7 +21258,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A129" s="67">
         <v>2634</v>
       </c>
@@ -21147,7 +21306,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A131" s="67">
         <v>2636</v>
       </c>
@@ -22083,7 +22242,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A170" s="67">
         <v>2853</v>
       </c>
@@ -22628,7 +22787,7 @@
         <v>11</v>
       </c>
       <c r="E194" s="63" t="str">
-        <f t="shared" ref="E194:E257" si="3">$E$1&amp;F194&amp;D194&amp;F194&amp;$G$1&amp;F194&amp;A194&amp;F194</f>
+        <f t="shared" ref="E194:E251" si="3">$E$1&amp;F194&amp;D194&amp;F194&amp;$G$1&amp;F194&amp;A194&amp;F194</f>
         <v>UPDATE DmTieuMuc SET NhomTieuMuc_BC=11 WHERE TieuMuc= 1601</v>
       </c>
       <c r="F194" s="65" t="s">
@@ -22758,7 +22917,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A200" s="67">
         <v>1407</v>
       </c>
@@ -23163,7 +23322,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A217" s="67">
         <v>1006</v>
       </c>
@@ -23328,7 +23487,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A224" s="67">
         <v>1052</v>
       </c>
@@ -23987,11 +24146,11 @@
       <selection activeCell="B252" sqref="B252"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="54" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="54" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="93.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -26964,7 +27123,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="271" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26974,18 +27133,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A130" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="49">
         <v>1003</v>
       </c>
@@ -26995,7 +27154,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="67">
         <v>1004</v>
       </c>
@@ -27005,7 +27164,7 @@
         <v>1003,1004</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="67">
         <v>1005</v>
       </c>
@@ -27015,7 +27174,7 @@
         <v>1003,1004,1005</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="67">
         <v>1015</v>
       </c>
@@ -27025,7 +27184,7 @@
         <v>1003,1004,1005,1015</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="67">
         <v>3605</v>
       </c>
@@ -27035,7 +27194,7 @@
         <v>1003,1004,1005,1015,3605</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="67">
         <v>3606</v>
       </c>
@@ -27045,7 +27204,7 @@
         <v>1003,1004,1005,1015,3605,3606</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="67">
         <v>3607</v>
       </c>
@@ -27055,7 +27214,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="67">
         <v>3608</v>
       </c>
@@ -27065,7 +27224,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="67">
         <v>3649</v>
       </c>
@@ -27075,7 +27234,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="67">
         <v>1764</v>
       </c>
@@ -27085,7 +27244,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="67">
         <v>1765</v>
       </c>
@@ -27095,7 +27254,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="67">
         <v>1766</v>
       </c>
@@ -27105,7 +27264,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="67">
         <v>4934</v>
       </c>
@@ -27115,7 +27274,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="67">
         <v>2164</v>
       </c>
@@ -27125,7 +27284,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="67">
         <v>2165</v>
       </c>
@@ -27135,7 +27294,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="67">
         <v>2166</v>
       </c>
@@ -27145,7 +27304,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="67">
         <v>2167</v>
       </c>
@@ -27155,7 +27314,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="67">
         <v>2206</v>
       </c>
@@ -27165,7 +27324,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="67">
         <v>2207</v>
       </c>
@@ -27175,7 +27334,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="67">
         <v>2208</v>
       </c>
@@ -27185,7 +27344,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="67">
         <v>2211</v>
       </c>
@@ -27195,7 +27354,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="67">
         <v>2251</v>
       </c>
@@ -27205,7 +27364,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="67">
         <v>2254</v>
       </c>
@@ -27215,7 +27374,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="67">
         <v>2255</v>
       </c>
@@ -27225,7 +27384,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="67">
         <v>2262</v>
       </c>
@@ -27235,7 +27394,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="67">
         <v>2263</v>
       </c>
@@ -27245,7 +27404,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="67">
         <v>2264</v>
       </c>
@@ -27255,7 +27414,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="67">
         <v>2265</v>
       </c>
@@ -27265,7 +27424,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="67">
         <v>2266</v>
       </c>
@@ -27275,7 +27434,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="67">
         <v>2267</v>
       </c>
@@ -27285,7 +27444,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="67">
         <v>2301</v>
       </c>
@@ -27295,7 +27454,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="67">
         <v>2302</v>
       </c>
@@ -27305,7 +27464,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="67">
         <v>2303</v>
       </c>
@@ -27315,7 +27474,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="67">
         <v>2316</v>
       </c>
@@ -27325,7 +27484,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="67">
         <v>2323</v>
       </c>
@@ -27335,7 +27494,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="67">
         <v>2351</v>
       </c>
@@ -27345,7 +27504,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="67">
         <v>2352</v>
       </c>
@@ -27355,7 +27514,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="67">
         <v>2353</v>
       </c>
@@ -27365,7 +27524,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="67">
         <v>2361</v>
       </c>
@@ -27375,7 +27534,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="67">
         <v>2362</v>
       </c>
@@ -27385,7 +27544,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="67">
         <v>2363</v>
       </c>
@@ -27395,7 +27554,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="67">
         <v>2364</v>
       </c>
@@ -27405,7 +27564,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="67">
         <v>2365</v>
       </c>
@@ -27415,7 +27574,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="67">
         <v>2366</v>
       </c>
@@ -27425,7 +27584,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="67">
         <v>2367</v>
       </c>
@@ -27435,7 +27594,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="67">
         <v>2368</v>
       </c>
@@ -27445,7 +27604,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="67">
         <v>2404</v>
       </c>
@@ -27455,7 +27614,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="67">
         <v>2416</v>
       </c>
@@ -27465,7 +27624,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="67">
         <v>2418</v>
       </c>
@@ -27475,7 +27634,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="67">
         <v>2421</v>
       </c>
@@ -27485,7 +27644,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="67">
         <v>2422</v>
       </c>
@@ -27495,7 +27654,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="67">
         <v>2452</v>
       </c>
@@ -27505,7 +27664,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="67">
         <v>2453</v>
       </c>
@@ -27515,7 +27674,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="67">
         <v>2455</v>
       </c>
@@ -27525,7 +27684,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="67">
         <v>2456</v>
       </c>
@@ -27535,7 +27694,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="67">
         <v>2457</v>
       </c>
@@ -27545,7 +27704,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="67">
         <v>2458</v>
       </c>
@@ -27555,7 +27714,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="67">
         <v>2504</v>
       </c>
@@ -27565,7 +27724,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="67">
         <v>2505</v>
       </c>
@@ -27575,7 +27734,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="67">
         <v>2506</v>
       </c>
@@ -27585,7 +27744,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="67">
         <v>2507</v>
       </c>
@@ -27595,7 +27754,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="67">
         <v>2508</v>
       </c>
@@ -27605,7 +27764,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="67">
         <v>2511</v>
       </c>
@@ -27615,7 +27774,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="67">
         <v>2512</v>
       </c>
@@ -27625,7 +27784,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="67">
         <v>2513</v>
       </c>
@@ -27635,7 +27794,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="67">
         <v>2561</v>
       </c>
@@ -27645,7 +27804,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="67">
         <v>2565</v>
       </c>
@@ -27655,7 +27814,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="67">
         <v>2566</v>
       </c>
@@ -27665,7 +27824,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="67">
         <v>2567</v>
       </c>
@@ -27675,7 +27834,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="67">
         <v>2618</v>
       </c>
@@ -27685,7 +27844,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="67">
         <v>2624</v>
       </c>
@@ -27695,7 +27854,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="67">
         <v>2625</v>
       </c>
@@ -27705,7 +27864,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="67">
         <v>2626</v>
       </c>
@@ -27715,7 +27874,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="67">
         <v>2627</v>
       </c>
@@ -27725,7 +27884,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="67">
         <v>2628</v>
       </c>
@@ -27735,7 +27894,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="67">
         <v>2631</v>
       </c>
@@ -27745,7 +27904,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="67">
         <v>2632</v>
       </c>
@@ -27758,7 +27917,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="67">
         <v>2633</v>
       </c>
@@ -27771,7 +27930,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="67">
         <v>2634</v>
       </c>
@@ -27784,7 +27943,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="67">
         <v>2635</v>
       </c>
@@ -27797,7 +27956,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="67">
         <v>2636</v>
       </c>
@@ -27810,7 +27969,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="67">
         <v>2637</v>
       </c>
@@ -27823,7 +27982,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="67">
         <v>2638</v>
       </c>
@@ -27836,7 +27995,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="67">
         <v>2652</v>
       </c>
@@ -27849,7 +28008,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="67">
         <v>2663</v>
       </c>
@@ -27862,7 +28021,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="67">
         <v>2664</v>
       </c>
@@ -27875,7 +28034,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="67">
         <v>2665</v>
       </c>
@@ -27888,7 +28047,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="67">
         <v>2701</v>
       </c>
@@ -27901,7 +28060,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="67">
         <v>2703</v>
       </c>
@@ -27914,7 +28073,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="67">
         <v>2706</v>
       </c>
@@ -27927,7 +28086,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="67">
         <v>2707</v>
       </c>
@@ -27940,7 +28099,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="67">
         <v>2715</v>
       </c>
@@ -27953,7 +28112,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="67">
         <v>2716</v>
       </c>
@@ -27966,7 +28125,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="67">
         <v>2717</v>
       </c>
@@ -27979,7 +28138,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="67">
         <v>2718</v>
       </c>
@@ -27992,7 +28151,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="67">
         <v>2721</v>
       </c>
@@ -28005,7 +28164,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="67">
         <v>2722</v>
       </c>
@@ -28018,7 +28177,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="67">
         <v>2751</v>
       </c>
@@ -28031,7 +28190,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="67">
         <v>2752</v>
       </c>
@@ -28044,7 +28203,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="67">
         <v>2763</v>
       </c>
@@ -28057,7 +28216,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="67">
         <v>2766</v>
       </c>
@@ -28070,7 +28229,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="67">
         <v>2767</v>
       </c>
@@ -28083,7 +28242,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="67">
         <v>2768</v>
       </c>
@@ -28096,7 +28255,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="67">
         <v>2771</v>
       </c>
@@ -28109,7 +28268,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="67">
         <v>2772</v>
       </c>
@@ -28122,7 +28281,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="67">
         <v>2773</v>
       </c>
@@ -28135,7 +28294,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="67">
         <v>2774</v>
       </c>
@@ -28148,7 +28307,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="67">
         <v>2802</v>
       </c>
@@ -28161,7 +28320,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="67">
         <v>2803</v>
       </c>
@@ -28174,7 +28333,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="67">
         <v>2804</v>
       </c>
@@ -28187,7 +28346,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803,2804</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="67">
         <v>2805</v>
       </c>
@@ -28200,7 +28359,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803,2804,2805</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="67">
         <v>2815</v>
       </c>
@@ -28213,7 +28372,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803,2804,2805,2815</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="67">
         <v>2824</v>
       </c>
@@ -28226,7 +28385,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803,2804,2805,2815,2824</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="67">
         <v>2825</v>
       </c>
@@ -28239,7 +28398,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803,2804,2805,2815,2824,2825</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="67">
         <v>2826</v>
       </c>
@@ -28252,7 +28411,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803,2804,2805,2815,2824,2825,2826</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="67">
         <v>2827</v>
       </c>
@@ -28265,7 +28424,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803,2804,2805,2815,2824,2825,2826,2827</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="67">
         <v>2828</v>
       </c>
@@ -28278,7 +28437,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803,2804,2805,2815,2824,2825,2826,2827,2828</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="67">
         <v>2831</v>
       </c>
@@ -28291,7 +28450,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803,2804,2805,2815,2824,2825,2826,2827,2828,2831</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="67">
         <v>2852</v>
       </c>
@@ -28304,7 +28463,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803,2804,2805,2815,2824,2825,2826,2827,2828,2831,2852</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="67">
         <v>2853</v>
       </c>
@@ -28317,7 +28476,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803,2804,2805,2815,2824,2825,2826,2827,2828,2831,2852,2853</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="67">
         <v>2854</v>
       </c>
@@ -28330,7 +28489,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803,2804,2805,2815,2824,2825,2826,2827,2828,2831,2852,2853,2854</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="67">
         <v>2861</v>
       </c>
@@ -28343,7 +28502,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803,2804,2805,2815,2824,2825,2826,2827,2828,2831,2852,2853,2854,2861</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="67">
         <v>2862</v>
       </c>
@@ -28356,7 +28515,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803,2804,2805,2815,2824,2825,2826,2827,2828,2831,2852,2853,2854,2861,2862</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="67">
         <v>2863</v>
       </c>
@@ -28369,7 +28528,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803,2804,2805,2815,2824,2825,2826,2827,2828,2831,2852,2853,2854,2861,2862,2863</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="67">
         <v>2864</v>
       </c>
@@ -28382,7 +28541,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803,2804,2805,2815,2824,2825,2826,2827,2828,2831,2852,2853,2854,2861,2862,2863,2864</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="67">
         <v>2865</v>
       </c>
@@ -28395,7 +28554,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803,2804,2805,2815,2824,2825,2826,2827,2828,2831,2852,2853,2854,2861,2862,2863,2864,2865</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="67">
         <v>2866</v>
       </c>
@@ -28408,7 +28567,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803,2804,2805,2815,2824,2825,2826,2827,2828,2831,2852,2853,2854,2861,2862,2863,2864,2865,2866</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="67">
         <v>2867</v>
       </c>
@@ -28421,7 +28580,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803,2804,2805,2815,2824,2825,2826,2827,2828,2831,2852,2853,2854,2861,2862,2863,2864,2865,2866,2867</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="67">
         <v>2868</v>
       </c>
@@ -28434,7 +28593,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803,2804,2805,2815,2824,2825,2826,2827,2828,2831,2852,2853,2854,2861,2862,2863,2864,2865,2866,2867,2868</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="67">
         <v>2871</v>
       </c>
@@ -28447,7 +28606,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803,2804,2805,2815,2824,2825,2826,2827,2828,2831,2852,2853,2854,2861,2862,2863,2864,2865,2866,2867,2868,2871</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="67">
         <v>2872</v>
       </c>
@@ -28460,7 +28619,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803,2804,2805,2815,2824,2825,2826,2827,2828,2831,2852,2853,2854,2861,2862,2863,2864,2865,2866,2867,2868,2871,2872</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="67">
         <v>3001</v>
       </c>
@@ -28473,7 +28632,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803,2804,2805,2815,2824,2825,2826,2827,2828,2831,2852,2853,2854,2861,2862,2863,2864,2865,2866,2867,2868,2871,2872,3001</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="67">
         <v>3002</v>
       </c>
@@ -28486,7 +28645,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803,2804,2805,2815,2824,2825,2826,2827,2828,2831,2852,2853,2854,2861,2862,2863,2864,2865,2866,2867,2868,2871,2872,3001,3002</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="67">
         <v>3007</v>
       </c>
@@ -28499,7 +28658,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803,2804,2805,2815,2824,2825,2826,2827,2828,2831,2852,2853,2854,2861,2862,2863,2864,2865,2866,2867,2868,2871,2872,3001,3002,3007</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="67">
         <v>3064</v>
       </c>
@@ -28512,7 +28671,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803,2804,2805,2815,2824,2825,2826,2827,2828,2831,2852,2853,2854,2861,2862,2863,2864,2865,2866,2867,2868,2871,2872,3001,3002,3007,3064</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="67">
         <v>3065</v>
       </c>
@@ -28525,7 +28684,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803,2804,2805,2815,2824,2825,2826,2827,2828,2831,2852,2853,2854,2861,2862,2863,2864,2865,2866,2867,2868,2871,2872,3001,3002,3007,3064,3065</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="67">
         <v>3066</v>
       </c>
@@ -28538,7 +28697,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803,2804,2805,2815,2824,2825,2826,2827,2828,2831,2852,2853,2854,2861,2862,2863,2864,2865,2866,2867,2868,2871,2872,3001,3002,3007,3064,3065,3066</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="67">
         <v>3067</v>
       </c>
@@ -28551,7 +28710,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803,2804,2805,2815,2824,2825,2826,2827,2828,2831,2852,2853,2854,2861,2862,2863,2864,2865,2866,2867,2868,2871,2872,3001,3002,3007,3064,3065,3066,3067</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="67">
         <v>3068</v>
       </c>
@@ -28564,7 +28723,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803,2804,2805,2815,2824,2825,2826,2827,2828,2831,2852,2853,2854,2861,2862,2863,2864,2865,2866,2867,2868,2871,2872,3001,3002,3007,3064,3065,3066,3067,3068</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="67">
         <v>3071</v>
       </c>
@@ -28577,7 +28736,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803,2804,2805,2815,2824,2825,2826,2827,2828,2831,2852,2853,2854,2861,2862,2863,2864,2865,2866,2867,2868,2871,2872,3001,3002,3007,3064,3065,3066,3067,3068,3071</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="67">
         <v>3072</v>
       </c>
@@ -28590,7 +28749,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803,2804,2805,2815,2824,2825,2826,2827,2828,2831,2852,2853,2854,2861,2862,2863,2864,2865,2866,2867,2868,2871,2872,3001,3002,3007,3064,3065,3066,3067,3068,3071,3072</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="67">
         <v>3073</v>
       </c>
@@ -28603,7 +28762,7 @@
         <v>1003,1004,1005,1015,3605,3606,3607,3608,3649,1764,1765,1766,4934,2164,2165,2166,2167,2206,2207,2208,2211,2251,2254,2255,2262,2263,2264,2265,2266,2267,2301,2302,2303,2316,2323,2351,2352,2353,2361,2362,2363,2364,2365,2366,2367,2368,2404,2416,2418,2421,2422,2452,2453,2455,2456,2457,2458,2504,2505,2506,2507,2508,2511,2512,2513,2561,2565,2566,2567,2618,2624,2625,2626,2627,2628,2631,2632,2633,2634,2635,2636,2637,2638,2652,2663,2664,2665,2701,2703,2706,2707,2715,2716,2717,2718,2721,2722,2751,2752,2763,2766,2767,2768,2771,2772,2773,2774,2802,2803,2804,2805,2815,2824,2825,2826,2827,2828,2831,2852,2853,2854,2861,2862,2863,2864,2865,2866,2867,2868,2871,2872,3001,3002,3007,3064,3065,3066,3067,3068,3071,3072,3073</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="67">
         <v>3074</v>
       </c>
@@ -28620,4 +28779,6715 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DN20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="123.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A2" s="76">
+        <v>0</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A3" s="76">
+        <v>1</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>492</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:118" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="76">
+        <v>2</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" s="81" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:118" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="76">
+        <v>3</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D5" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="79">
+        <v>2</v>
+      </c>
+      <c r="F5" s="79">
+        <v>3</v>
+      </c>
+      <c r="G5" s="79">
+        <v>4</v>
+      </c>
+      <c r="H5" s="79">
+        <v>5</v>
+      </c>
+      <c r="I5" s="79">
+        <v>9</v>
+      </c>
+      <c r="J5" s="79">
+        <v>10</v>
+      </c>
+      <c r="K5" s="79">
+        <v>11</v>
+      </c>
+      <c r="L5" s="79">
+        <v>12</v>
+      </c>
+      <c r="M5" s="79">
+        <v>13</v>
+      </c>
+      <c r="N5" s="79">
+        <v>14</v>
+      </c>
+      <c r="O5" s="79">
+        <v>16</v>
+      </c>
+      <c r="P5" s="79">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="79">
+        <v>18</v>
+      </c>
+      <c r="R5" s="79">
+        <v>19</v>
+      </c>
+      <c r="S5" s="79">
+        <v>21</v>
+      </c>
+      <c r="T5" s="79">
+        <v>22</v>
+      </c>
+      <c r="U5" s="79">
+        <v>23</v>
+      </c>
+      <c r="V5" s="79">
+        <v>24</v>
+      </c>
+      <c r="W5" s="79">
+        <v>25</v>
+      </c>
+      <c r="X5" s="79">
+        <v>26</v>
+      </c>
+      <c r="Y5" s="79">
+        <v>27</v>
+      </c>
+      <c r="Z5" s="79">
+        <v>35</v>
+      </c>
+      <c r="AA5" s="79">
+        <v>36</v>
+      </c>
+      <c r="AB5" s="79">
+        <v>37</v>
+      </c>
+      <c r="AC5" s="79">
+        <v>38</v>
+      </c>
+      <c r="AD5" s="79">
+        <v>39</v>
+      </c>
+      <c r="AE5" s="79">
+        <v>40</v>
+      </c>
+      <c r="AF5" s="79">
+        <v>41</v>
+      </c>
+      <c r="AG5" s="79">
+        <v>42</v>
+      </c>
+      <c r="AH5" s="79">
+        <v>44</v>
+      </c>
+      <c r="AI5" s="79">
+        <v>45</v>
+      </c>
+      <c r="AJ5" s="79">
+        <v>46</v>
+      </c>
+      <c r="AK5" s="79">
+        <v>48</v>
+      </c>
+      <c r="AL5" s="79">
+        <v>49</v>
+      </c>
+      <c r="AM5" s="79">
+        <v>50</v>
+      </c>
+      <c r="AN5" s="79">
+        <v>83</v>
+      </c>
+      <c r="AO5" s="79">
+        <v>88</v>
+      </c>
+      <c r="AP5" s="79">
+        <v>100</v>
+      </c>
+      <c r="AQ5" s="79">
+        <v>107</v>
+      </c>
+      <c r="AR5" s="79">
+        <v>109</v>
+      </c>
+      <c r="AS5" s="79">
+        <v>110</v>
+      </c>
+      <c r="AT5" s="79">
+        <v>111</v>
+      </c>
+      <c r="AU5" s="79">
+        <v>112</v>
+      </c>
+      <c r="AV5" s="79">
+        <v>113</v>
+      </c>
+      <c r="AW5" s="79">
+        <v>114</v>
+      </c>
+      <c r="AX5" s="79">
+        <v>115</v>
+      </c>
+      <c r="AY5" s="79">
+        <v>116</v>
+      </c>
+      <c r="AZ5" s="79">
+        <v>117</v>
+      </c>
+      <c r="BA5" s="79">
+        <v>118</v>
+      </c>
+      <c r="BB5" s="79">
+        <v>119</v>
+      </c>
+      <c r="BC5" s="79">
+        <v>120</v>
+      </c>
+      <c r="BD5" s="79">
+        <v>121</v>
+      </c>
+      <c r="BE5" s="79">
+        <v>122</v>
+      </c>
+      <c r="BF5" s="79">
+        <v>123</v>
+      </c>
+      <c r="BG5" s="79">
+        <v>124</v>
+      </c>
+      <c r="BH5" s="79">
+        <v>125</v>
+      </c>
+      <c r="BI5" s="79">
+        <v>126</v>
+      </c>
+      <c r="BJ5" s="79">
+        <v>127</v>
+      </c>
+      <c r="BK5" s="79">
+        <v>128</v>
+      </c>
+      <c r="BL5" s="79">
+        <v>129</v>
+      </c>
+      <c r="BM5" s="79">
+        <v>130</v>
+      </c>
+      <c r="BN5" s="79">
+        <v>131</v>
+      </c>
+      <c r="BO5" s="79">
+        <v>132</v>
+      </c>
+      <c r="BP5" s="79">
+        <v>133</v>
+      </c>
+      <c r="BQ5" s="79">
+        <v>134</v>
+      </c>
+      <c r="BR5" s="79">
+        <v>135</v>
+      </c>
+      <c r="BS5" s="79">
+        <v>136</v>
+      </c>
+      <c r="BT5" s="79">
+        <v>137</v>
+      </c>
+      <c r="BU5" s="79">
+        <v>138</v>
+      </c>
+      <c r="BV5" s="79">
+        <v>139</v>
+      </c>
+      <c r="BW5" s="79">
+        <v>140</v>
+      </c>
+      <c r="BX5" s="79">
+        <v>141</v>
+      </c>
+      <c r="BY5" s="79">
+        <v>142</v>
+      </c>
+      <c r="BZ5" s="79">
+        <v>143</v>
+      </c>
+      <c r="CA5" s="79">
+        <v>145</v>
+      </c>
+      <c r="CB5" s="79">
+        <v>146</v>
+      </c>
+      <c r="CC5" s="79">
+        <v>147</v>
+      </c>
+      <c r="CD5" s="79">
+        <v>148</v>
+      </c>
+      <c r="CE5" s="79">
+        <v>149</v>
+      </c>
+      <c r="CF5" s="79">
+        <v>150</v>
+      </c>
+      <c r="CG5" s="79">
+        <v>158</v>
+      </c>
+      <c r="CH5" s="79">
+        <v>160</v>
+      </c>
+      <c r="CI5" s="79">
+        <v>163</v>
+      </c>
+      <c r="CJ5" s="79">
+        <v>164</v>
+      </c>
+      <c r="CK5" s="79">
+        <v>165</v>
+      </c>
+      <c r="CL5" s="79">
+        <v>166</v>
+      </c>
+      <c r="CM5" s="79">
+        <v>167</v>
+      </c>
+      <c r="CN5" s="79">
+        <v>168</v>
+      </c>
+      <c r="CO5" s="79">
+        <v>169</v>
+      </c>
+      <c r="CP5" s="79">
+        <v>170</v>
+      </c>
+      <c r="CQ5" s="79">
+        <v>171</v>
+      </c>
+      <c r="CR5" s="79">
+        <v>172</v>
+      </c>
+      <c r="CS5" s="79">
+        <v>173</v>
+      </c>
+      <c r="CT5" s="79">
+        <v>174</v>
+      </c>
+      <c r="CU5" s="79">
+        <v>175</v>
+      </c>
+      <c r="CV5" s="79">
+        <v>176</v>
+      </c>
+      <c r="CW5" s="79">
+        <v>179</v>
+      </c>
+      <c r="CX5" s="79">
+        <v>180</v>
+      </c>
+      <c r="CY5" s="79">
+        <v>181</v>
+      </c>
+      <c r="CZ5" s="79">
+        <v>399</v>
+      </c>
+      <c r="DA5" s="77"/>
+      <c r="DB5" s="77"/>
+      <c r="DC5" s="77"/>
+      <c r="DD5" s="77"/>
+      <c r="DE5" s="77"/>
+      <c r="DF5" s="77"/>
+      <c r="DG5" s="77"/>
+      <c r="DH5" s="77"/>
+      <c r="DI5" s="77"/>
+      <c r="DJ5" s="77"/>
+      <c r="DK5" s="77"/>
+      <c r="DL5" s="77"/>
+      <c r="DM5" s="77"/>
+      <c r="DN5" s="77"/>
+    </row>
+    <row r="6" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A6" s="76">
+        <v>4</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>346</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:118" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="76">
+        <v>5</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C7" s="78" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A8" s="76"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="78"/>
+    </row>
+    <row r="9" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A9" s="76"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="77"/>
+    </row>
+    <row r="10" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A10" s="76"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
+    </row>
+    <row r="11" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A11" s="76"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="78"/>
+    </row>
+    <row r="12" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A12" s="76"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="77"/>
+    </row>
+    <row r="13" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A13" s="76"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="77"/>
+    </row>
+    <row r="14" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A14" s="76"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="77"/>
+    </row>
+    <row r="15" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A15" s="76"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="77"/>
+    </row>
+    <row r="16" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A16" s="76"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="77"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="76"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="77"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="76"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="77"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="76"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="78"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="76"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="78"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>586</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>630</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>808</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>590</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>758</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>796</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>600</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>569</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>652</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>627</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>614</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>567</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>580</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:CB83"/>
+  <sheetViews>
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:80" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="77">
+        <v>402</v>
+      </c>
+      <c r="B2">
+        <v>405</v>
+      </c>
+      <c r="C2">
+        <v>411</v>
+      </c>
+      <c r="D2">
+        <v>412</v>
+      </c>
+      <c r="E2">
+        <v>413</v>
+      </c>
+      <c r="F2">
+        <v>414</v>
+      </c>
+      <c r="G2">
+        <v>416</v>
+      </c>
+      <c r="H2">
+        <v>417</v>
+      </c>
+      <c r="I2">
+        <v>418</v>
+      </c>
+      <c r="J2">
+        <v>419</v>
+      </c>
+      <c r="K2">
+        <v>421</v>
+      </c>
+      <c r="L2">
+        <v>422</v>
+      </c>
+      <c r="M2">
+        <v>423</v>
+      </c>
+      <c r="N2">
+        <v>424</v>
+      </c>
+      <c r="O2">
+        <v>425</v>
+      </c>
+      <c r="P2">
+        <v>426</v>
+      </c>
+      <c r="Q2">
+        <v>427</v>
+      </c>
+      <c r="R2">
+        <v>428</v>
+      </c>
+      <c r="S2">
+        <v>429</v>
+      </c>
+      <c r="T2">
+        <v>435</v>
+      </c>
+      <c r="U2">
+        <v>437</v>
+      </c>
+      <c r="V2">
+        <v>439</v>
+      </c>
+      <c r="W2">
+        <v>440</v>
+      </c>
+      <c r="X2">
+        <v>441</v>
+      </c>
+      <c r="Y2">
+        <v>442</v>
+      </c>
+      <c r="Z2">
+        <v>448</v>
+      </c>
+      <c r="AA2">
+        <v>483</v>
+      </c>
+      <c r="AB2">
+        <v>505</v>
+      </c>
+      <c r="AC2">
+        <v>509</v>
+      </c>
+      <c r="AD2">
+        <v>510</v>
+      </c>
+      <c r="AE2">
+        <v>511</v>
+      </c>
+      <c r="AF2">
+        <v>512</v>
+      </c>
+      <c r="AG2">
+        <v>513</v>
+      </c>
+      <c r="AH2">
+        <v>514</v>
+      </c>
+      <c r="AI2">
+        <v>515</v>
+      </c>
+      <c r="AJ2">
+        <v>558</v>
+      </c>
+      <c r="AK2">
+        <v>560</v>
+      </c>
+      <c r="AL2">
+        <v>563</v>
+      </c>
+      <c r="AM2">
+        <v>564</v>
+      </c>
+      <c r="AN2">
+        <v>599</v>
+      </c>
+      <c r="AO2">
+        <v>605</v>
+      </c>
+      <c r="AP2">
+        <v>612</v>
+      </c>
+      <c r="AQ2">
+        <v>614</v>
+      </c>
+      <c r="AR2">
+        <v>618</v>
+      </c>
+      <c r="AS2">
+        <v>619</v>
+      </c>
+      <c r="AT2">
+        <v>620</v>
+      </c>
+      <c r="AU2">
+        <v>622</v>
+      </c>
+      <c r="AV2">
+        <v>623</v>
+      </c>
+      <c r="AW2">
+        <v>624</v>
+      </c>
+      <c r="AX2">
+        <v>625</v>
+      </c>
+      <c r="AY2">
+        <v>626</v>
+      </c>
+      <c r="AZ2">
+        <v>635</v>
+      </c>
+      <c r="BA2">
+        <v>637</v>
+      </c>
+      <c r="BB2">
+        <v>640</v>
+      </c>
+      <c r="BC2">
+        <v>683</v>
+      </c>
+      <c r="BD2">
+        <v>709</v>
+      </c>
+      <c r="BE2">
+        <v>710</v>
+      </c>
+      <c r="BF2">
+        <v>711</v>
+      </c>
+      <c r="BG2">
+        <v>712</v>
+      </c>
+      <c r="BH2">
+        <v>713</v>
+      </c>
+      <c r="BI2">
+        <v>714</v>
+      </c>
+      <c r="BJ2">
+        <v>715</v>
+      </c>
+      <c r="BK2">
+        <v>758</v>
+      </c>
+      <c r="BL2">
+        <v>760</v>
+      </c>
+      <c r="BM2">
+        <v>799</v>
+      </c>
+      <c r="BN2">
+        <v>800</v>
+      </c>
+      <c r="BO2">
+        <v>802</v>
+      </c>
+      <c r="BP2">
+        <v>805</v>
+      </c>
+      <c r="BQ2">
+        <v>809</v>
+      </c>
+      <c r="BR2">
+        <v>810</v>
+      </c>
+      <c r="BS2">
+        <v>811</v>
+      </c>
+      <c r="BT2">
+        <v>812</v>
+      </c>
+      <c r="BU2">
+        <v>813</v>
+      </c>
+      <c r="BV2">
+        <v>814</v>
+      </c>
+      <c r="BW2">
+        <v>819</v>
+      </c>
+      <c r="BX2">
+        <v>820</v>
+      </c>
+      <c r="BY2">
+        <v>822</v>
+      </c>
+      <c r="BZ2">
+        <v>823</v>
+      </c>
+      <c r="CA2">
+        <v>860</v>
+      </c>
+      <c r="CB2">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>989</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F270"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C2">
+        <v>402</v>
+      </c>
+      <c r="D2" t="str">
+        <f>B2&amp;","&amp;C2</f>
+        <v>DNĐP,402</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="str">
+        <f>E2&amp;","&amp;C2</f>
+        <v>1,402</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C3">
+        <v>405</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D66" si="0">B3&amp;","&amp;C3</f>
+        <v>DNĐP,405</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F66" si="1">E3&amp;","&amp;C3</f>
+        <v>1,405</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4">
+        <v>411</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,411</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>1,411</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C5">
+        <v>412</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,412</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,412</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C6">
+        <v>413</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,413</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>1,413</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C7">
+        <v>414</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,414</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>1,414</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C8">
+        <v>416</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,416</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>1,416</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C9">
+        <v>417</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,417</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>1,417</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C10">
+        <v>418</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,418</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>1,418</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C11">
+        <v>419</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,419</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>1,419</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C12">
+        <v>421</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,421</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>1,421</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C13">
+        <v>422</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,422</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>1,422</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C14">
+        <v>423</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,423</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>1,423</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C15">
+        <v>424</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,424</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>1,424</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C16">
+        <v>425</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,425</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>1,425</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C17">
+        <v>426</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,426</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>1,426</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C18">
+        <v>427</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,427</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>1,427</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C19">
+        <v>428</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,428</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>1,428</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C20">
+        <v>429</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,429</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>1,429</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C21">
+        <v>435</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,435</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>1,435</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C22">
+        <v>437</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,437</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>1,437</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C23">
+        <v>439</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,439</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>1,439</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C24">
+        <v>440</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,440</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>1,440</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C25">
+        <v>441</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,441</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>1,441</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C26">
+        <v>442</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,442</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>1,442</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C27">
+        <v>448</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,448</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>1,448</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C28">
+        <v>483</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,483</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>1,483</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C29">
+        <v>505</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,505</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>1,505</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C30">
+        <v>509</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,509</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>1,509</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C31">
+        <v>510</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,510</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>1,510</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C32">
+        <v>511</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,511</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>1,511</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C33">
+        <v>512</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,512</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>1,512</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C34">
+        <v>513</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,513</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>1,513</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C35">
+        <v>514</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,514</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v>1,514</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C36">
+        <v>515</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,515</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v>1,515</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C37">
+        <v>558</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,558</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v>1,558</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C38">
+        <v>560</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,560</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v>1,560</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C39">
+        <v>563</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,563</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>1,563</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C40">
+        <v>564</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,564</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v>1,564</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C41">
+        <v>599</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,599</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v>1,599</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C42">
+        <v>605</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,605</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>1,605</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C43">
+        <v>612</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,612</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v>1,612</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C44">
+        <v>614</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,614</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v>1,614</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C45">
+        <v>618</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,618</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="1"/>
+        <v>1,618</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C46">
+        <v>619</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,619</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="1"/>
+        <v>1,619</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C47">
+        <v>620</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,620</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="1"/>
+        <v>1,620</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C48">
+        <v>622</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,622</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="1"/>
+        <v>1,622</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C49">
+        <v>623</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,623</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="1"/>
+        <v>1,623</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C50">
+        <v>624</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,624</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="1"/>
+        <v>1,624</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C51">
+        <v>625</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,625</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="1"/>
+        <v>1,625</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C52">
+        <v>626</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,626</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="1"/>
+        <v>1,626</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C53">
+        <v>635</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,635</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="1"/>
+        <v>1,635</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C54">
+        <v>637</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,637</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="1"/>
+        <v>1,637</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C55">
+        <v>640</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,640</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="1"/>
+        <v>1,640</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C56">
+        <v>683</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,683</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="1"/>
+        <v>1,683</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C57">
+        <v>709</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,709</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="1"/>
+        <v>1,709</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C58">
+        <v>710</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,710</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="1"/>
+        <v>1,710</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C59">
+        <v>711</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,711</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="1"/>
+        <v>1,711</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C60">
+        <v>712</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,712</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="1"/>
+        <v>1,712</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C61">
+        <v>713</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,713</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="1"/>
+        <v>1,713</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C62">
+        <v>714</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,714</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="1"/>
+        <v>1,714</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C63">
+        <v>715</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,715</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="1"/>
+        <v>1,715</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C64">
+        <v>758</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,758</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="1"/>
+        <v>1,758</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C65">
+        <v>760</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,760</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="1"/>
+        <v>1,760</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C66">
+        <v>799</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>DNĐP,799</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="1"/>
+        <v>1,799</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C67">
+        <v>800</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D130" si="2">B67&amp;","&amp;C67</f>
+        <v>DNĐP,800</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" ref="F67:F130" si="3">E67&amp;","&amp;C67</f>
+        <v>1,800</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C68">
+        <v>802</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="2"/>
+        <v>DNĐP,802</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="3"/>
+        <v>1,802</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C69">
+        <v>805</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="2"/>
+        <v>DNĐP,805</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="3"/>
+        <v>1,805</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C70">
+        <v>809</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="2"/>
+        <v>DNĐP,809</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="3"/>
+        <v>1,809</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C71">
+        <v>810</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="2"/>
+        <v>DNĐP,810</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="3"/>
+        <v>1,810</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C72">
+        <v>811</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="2"/>
+        <v>DNĐP,811</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="3"/>
+        <v>1,811</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C73">
+        <v>812</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="2"/>
+        <v>DNĐP,812</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="3"/>
+        <v>1,812</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C74">
+        <v>813</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="2"/>
+        <v>DNĐP,813</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="3"/>
+        <v>1,813</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C75">
+        <v>814</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="2"/>
+        <v>DNĐP,814</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="3"/>
+        <v>1,814</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C76">
+        <v>819</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="2"/>
+        <v>DNĐP,819</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="3"/>
+        <v>1,819</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C77">
+        <v>820</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="2"/>
+        <v>DNĐP,820</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="3"/>
+        <v>1,820</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C78">
+        <v>822</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="2"/>
+        <v>DNĐP,822</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="3"/>
+        <v>1,822</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C79">
+        <v>823</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="2"/>
+        <v>DNĐP,823</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="3"/>
+        <v>1,823</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C80">
+        <v>860</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="2"/>
+        <v>DNĐP,860</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="3"/>
+        <v>1,860</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C81">
+        <v>989</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="2"/>
+        <v>DNĐP,989</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" si="3"/>
+        <v>1,989</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C82" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,001</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="3"/>
+        <v>2,001</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C83" s="80">
+        <v>2</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,2</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83" t="str">
+        <f t="shared" si="3"/>
+        <v>2,2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C84" s="80">
+        <v>3</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,3</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" si="3"/>
+        <v>2,3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C85" s="80">
+        <v>4</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,4</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" si="3"/>
+        <v>2,4</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C86" s="80">
+        <v>5</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,5</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" si="3"/>
+        <v>2,5</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C87" s="80">
+        <v>9</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,9</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87" t="str">
+        <f t="shared" si="3"/>
+        <v>2,9</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C88" s="80">
+        <v>10</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,10</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" si="3"/>
+        <v>2,10</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C89" s="80">
+        <v>11</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,11</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89" t="str">
+        <f t="shared" si="3"/>
+        <v>2,11</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C90" s="80">
+        <v>12</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,12</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" si="3"/>
+        <v>2,12</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C91" s="80">
+        <v>13</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,13</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" si="3"/>
+        <v>2,13</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C92" s="80">
+        <v>14</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,14</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92" t="str">
+        <f t="shared" si="3"/>
+        <v>2,14</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C93" s="80">
+        <v>16</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,16</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93" t="str">
+        <f t="shared" si="3"/>
+        <v>2,16</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C94" s="80">
+        <v>17</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,17</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94" t="str">
+        <f t="shared" si="3"/>
+        <v>2,17</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C95" s="80">
+        <v>18</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,18</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" si="3"/>
+        <v>2,18</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C96" s="80">
+        <v>19</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,19</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96" t="str">
+        <f t="shared" si="3"/>
+        <v>2,19</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C97" s="80">
+        <v>21</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,21</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97" t="str">
+        <f t="shared" si="3"/>
+        <v>2,21</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C98" s="80">
+        <v>22</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,22</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98" t="str">
+        <f t="shared" si="3"/>
+        <v>2,22</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C99" s="80">
+        <v>23</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,23</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99" t="str">
+        <f t="shared" si="3"/>
+        <v>2,23</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C100" s="80">
+        <v>24</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,24</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="F100" t="str">
+        <f t="shared" si="3"/>
+        <v>2,24</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C101" s="80">
+        <v>25</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,25</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101" t="str">
+        <f t="shared" si="3"/>
+        <v>2,25</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C102" s="80">
+        <v>26</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,26</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102" t="str">
+        <f t="shared" si="3"/>
+        <v>2,26</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C103" s="80">
+        <v>27</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,27</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="F103" t="str">
+        <f t="shared" si="3"/>
+        <v>2,27</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C104" s="80">
+        <v>35</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,35</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104" t="str">
+        <f t="shared" si="3"/>
+        <v>2,35</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C105" s="80">
+        <v>36</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,36</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105" t="str">
+        <f t="shared" si="3"/>
+        <v>2,36</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C106" s="80">
+        <v>37</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,37</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106" t="str">
+        <f t="shared" si="3"/>
+        <v>2,37</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C107" s="80">
+        <v>38</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,38</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107" t="str">
+        <f t="shared" si="3"/>
+        <v>2,38</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C108" s="80">
+        <v>39</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,39</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108" t="str">
+        <f t="shared" si="3"/>
+        <v>2,39</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C109" s="80">
+        <v>40</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,40</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109" t="str">
+        <f t="shared" si="3"/>
+        <v>2,40</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C110" s="80">
+        <v>41</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,41</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110" t="str">
+        <f t="shared" si="3"/>
+        <v>2,41</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C111" s="80">
+        <v>42</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,42</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="F111" t="str">
+        <f t="shared" si="3"/>
+        <v>2,42</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C112" s="80">
+        <v>44</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,44</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="F112" t="str">
+        <f t="shared" si="3"/>
+        <v>2,44</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C113" s="80">
+        <v>45</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,45</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113" t="str">
+        <f t="shared" si="3"/>
+        <v>2,45</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C114" s="80">
+        <v>46</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,46</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+      <c r="F114" t="str">
+        <f t="shared" si="3"/>
+        <v>2,46</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C115" s="80">
+        <v>48</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,48</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+      <c r="F115" t="str">
+        <f t="shared" si="3"/>
+        <v>2,48</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C116" s="80">
+        <v>49</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,49</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="F116" t="str">
+        <f t="shared" si="3"/>
+        <v>2,49</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C117" s="80">
+        <v>50</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,50</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+      <c r="F117" t="str">
+        <f t="shared" si="3"/>
+        <v>2,50</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C118" s="80">
+        <v>83</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,83</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+      <c r="F118" t="str">
+        <f t="shared" si="3"/>
+        <v>2,83</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C119" s="80">
+        <v>88</v>
+      </c>
+      <c r="D119" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,88</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119" t="str">
+        <f t="shared" si="3"/>
+        <v>2,88</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B120" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C120" s="80">
+        <v>100</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,100</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+      <c r="F120" t="str">
+        <f t="shared" si="3"/>
+        <v>2,100</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B121" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C121" s="80">
+        <v>107</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,107</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F121" t="str">
+        <f t="shared" si="3"/>
+        <v>2,107</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B122" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C122" s="80">
+        <v>109</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,109</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122" t="str">
+        <f t="shared" si="3"/>
+        <v>2,109</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B123" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C123" s="80">
+        <v>110</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,110</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123" t="str">
+        <f t="shared" si="3"/>
+        <v>2,110</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B124" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C124" s="80">
+        <v>111</v>
+      </c>
+      <c r="D124" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,111</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+      <c r="F124" t="str">
+        <f t="shared" si="3"/>
+        <v>2,111</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B125" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C125" s="80">
+        <v>112</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,112</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+      <c r="F125" t="str">
+        <f t="shared" si="3"/>
+        <v>2,112</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B126" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C126" s="80">
+        <v>113</v>
+      </c>
+      <c r="D126" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,113</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+      <c r="F126" t="str">
+        <f t="shared" si="3"/>
+        <v>2,113</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B127" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C127" s="80">
+        <v>114</v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,114</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+      <c r="F127" t="str">
+        <f t="shared" si="3"/>
+        <v>2,114</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B128" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C128" s="80">
+        <v>115</v>
+      </c>
+      <c r="D128" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,115</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+      <c r="F128" t="str">
+        <f t="shared" si="3"/>
+        <v>2,115</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B129" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C129" s="80">
+        <v>116</v>
+      </c>
+      <c r="D129" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,116</v>
+      </c>
+      <c r="E129">
+        <v>2</v>
+      </c>
+      <c r="F129" t="str">
+        <f t="shared" si="3"/>
+        <v>2,116</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B130" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C130" s="80">
+        <v>117</v>
+      </c>
+      <c r="D130" t="str">
+        <f t="shared" si="2"/>
+        <v>DNTW,117</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
+      </c>
+      <c r="F130" t="str">
+        <f t="shared" si="3"/>
+        <v>2,117</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B131" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C131" s="80">
+        <v>118</v>
+      </c>
+      <c r="D131" t="str">
+        <f t="shared" ref="D131:D194" si="4">B131&amp;","&amp;C131</f>
+        <v>DNTW,118</v>
+      </c>
+      <c r="E131">
+        <v>2</v>
+      </c>
+      <c r="F131" t="str">
+        <f t="shared" ref="F131:F194" si="5">E131&amp;","&amp;C131</f>
+        <v>2,118</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B132" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C132" s="80">
+        <v>119</v>
+      </c>
+      <c r="D132" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,119</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
+      </c>
+      <c r="F132" t="str">
+        <f t="shared" si="5"/>
+        <v>2,119</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B133" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C133" s="80">
+        <v>120</v>
+      </c>
+      <c r="D133" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,120</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+      <c r="F133" t="str">
+        <f t="shared" si="5"/>
+        <v>2,120</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B134" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C134" s="80">
+        <v>121</v>
+      </c>
+      <c r="D134" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,121</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
+      </c>
+      <c r="F134" t="str">
+        <f t="shared" si="5"/>
+        <v>2,121</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B135" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C135" s="80">
+        <v>122</v>
+      </c>
+      <c r="D135" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,122</v>
+      </c>
+      <c r="E135">
+        <v>2</v>
+      </c>
+      <c r="F135" t="str">
+        <f t="shared" si="5"/>
+        <v>2,122</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B136" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C136" s="80">
+        <v>123</v>
+      </c>
+      <c r="D136" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,123</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+      <c r="F136" t="str">
+        <f t="shared" si="5"/>
+        <v>2,123</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B137" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C137" s="80">
+        <v>124</v>
+      </c>
+      <c r="D137" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,124</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+      <c r="F137" t="str">
+        <f t="shared" si="5"/>
+        <v>2,124</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B138" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C138" s="80">
+        <v>125</v>
+      </c>
+      <c r="D138" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,125</v>
+      </c>
+      <c r="E138">
+        <v>2</v>
+      </c>
+      <c r="F138" t="str">
+        <f t="shared" si="5"/>
+        <v>2,125</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B139" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C139" s="80">
+        <v>126</v>
+      </c>
+      <c r="D139" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,126</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+      <c r="F139" t="str">
+        <f t="shared" si="5"/>
+        <v>2,126</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B140" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C140" s="80">
+        <v>127</v>
+      </c>
+      <c r="D140" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,127</v>
+      </c>
+      <c r="E140">
+        <v>2</v>
+      </c>
+      <c r="F140" t="str">
+        <f t="shared" si="5"/>
+        <v>2,127</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B141" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C141" s="80">
+        <v>128</v>
+      </c>
+      <c r="D141" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,128</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+      <c r="F141" t="str">
+        <f t="shared" si="5"/>
+        <v>2,128</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B142" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C142" s="80">
+        <v>129</v>
+      </c>
+      <c r="D142" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,129</v>
+      </c>
+      <c r="E142">
+        <v>2</v>
+      </c>
+      <c r="F142" t="str">
+        <f t="shared" si="5"/>
+        <v>2,129</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B143" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C143" s="80">
+        <v>130</v>
+      </c>
+      <c r="D143" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,130</v>
+      </c>
+      <c r="E143">
+        <v>2</v>
+      </c>
+      <c r="F143" t="str">
+        <f t="shared" si="5"/>
+        <v>2,130</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B144" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C144" s="80">
+        <v>131</v>
+      </c>
+      <c r="D144" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,131</v>
+      </c>
+      <c r="E144">
+        <v>2</v>
+      </c>
+      <c r="F144" t="str">
+        <f t="shared" si="5"/>
+        <v>2,131</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B145" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C145" s="80">
+        <v>132</v>
+      </c>
+      <c r="D145" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,132</v>
+      </c>
+      <c r="E145">
+        <v>2</v>
+      </c>
+      <c r="F145" t="str">
+        <f t="shared" si="5"/>
+        <v>2,132</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B146" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C146" s="80">
+        <v>133</v>
+      </c>
+      <c r="D146" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,133</v>
+      </c>
+      <c r="E146">
+        <v>2</v>
+      </c>
+      <c r="F146" t="str">
+        <f t="shared" si="5"/>
+        <v>2,133</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B147" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C147" s="80">
+        <v>134</v>
+      </c>
+      <c r="D147" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,134</v>
+      </c>
+      <c r="E147">
+        <v>2</v>
+      </c>
+      <c r="F147" t="str">
+        <f t="shared" si="5"/>
+        <v>2,134</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B148" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C148" s="80">
+        <v>135</v>
+      </c>
+      <c r="D148" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,135</v>
+      </c>
+      <c r="E148">
+        <v>2</v>
+      </c>
+      <c r="F148" t="str">
+        <f t="shared" si="5"/>
+        <v>2,135</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B149" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C149" s="80">
+        <v>136</v>
+      </c>
+      <c r="D149" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,136</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
+      </c>
+      <c r="F149" t="str">
+        <f t="shared" si="5"/>
+        <v>2,136</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B150" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C150" s="80">
+        <v>137</v>
+      </c>
+      <c r="D150" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,137</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
+      <c r="F150" t="str">
+        <f t="shared" si="5"/>
+        <v>2,137</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B151" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C151" s="80">
+        <v>138</v>
+      </c>
+      <c r="D151" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,138</v>
+      </c>
+      <c r="E151">
+        <v>2</v>
+      </c>
+      <c r="F151" t="str">
+        <f t="shared" si="5"/>
+        <v>2,138</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B152" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C152" s="80">
+        <v>139</v>
+      </c>
+      <c r="D152" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,139</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
+      <c r="F152" t="str">
+        <f t="shared" si="5"/>
+        <v>2,139</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B153" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C153" s="80">
+        <v>140</v>
+      </c>
+      <c r="D153" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,140</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+      <c r="F153" t="str">
+        <f t="shared" si="5"/>
+        <v>2,140</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B154" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C154" s="80">
+        <v>141</v>
+      </c>
+      <c r="D154" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,141</v>
+      </c>
+      <c r="E154">
+        <v>2</v>
+      </c>
+      <c r="F154" t="str">
+        <f t="shared" si="5"/>
+        <v>2,141</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B155" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C155" s="80">
+        <v>142</v>
+      </c>
+      <c r="D155" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,142</v>
+      </c>
+      <c r="E155">
+        <v>2</v>
+      </c>
+      <c r="F155" t="str">
+        <f t="shared" si="5"/>
+        <v>2,142</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B156" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C156" s="80">
+        <v>143</v>
+      </c>
+      <c r="D156" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,143</v>
+      </c>
+      <c r="E156">
+        <v>2</v>
+      </c>
+      <c r="F156" t="str">
+        <f t="shared" si="5"/>
+        <v>2,143</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B157" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C157" s="80">
+        <v>145</v>
+      </c>
+      <c r="D157" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,145</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="F157" t="str">
+        <f t="shared" si="5"/>
+        <v>2,145</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B158" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C158" s="80">
+        <v>146</v>
+      </c>
+      <c r="D158" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,146</v>
+      </c>
+      <c r="E158">
+        <v>2</v>
+      </c>
+      <c r="F158" t="str">
+        <f t="shared" si="5"/>
+        <v>2,146</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B159" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C159" s="80">
+        <v>147</v>
+      </c>
+      <c r="D159" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,147</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
+      </c>
+      <c r="F159" t="str">
+        <f t="shared" si="5"/>
+        <v>2,147</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B160" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C160" s="80">
+        <v>148</v>
+      </c>
+      <c r="D160" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,148</v>
+      </c>
+      <c r="E160">
+        <v>2</v>
+      </c>
+      <c r="F160" t="str">
+        <f t="shared" si="5"/>
+        <v>2,148</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B161" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C161" s="80">
+        <v>149</v>
+      </c>
+      <c r="D161" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,149</v>
+      </c>
+      <c r="E161">
+        <v>2</v>
+      </c>
+      <c r="F161" t="str">
+        <f t="shared" si="5"/>
+        <v>2,149</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B162" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C162" s="80">
+        <v>150</v>
+      </c>
+      <c r="D162" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,150</v>
+      </c>
+      <c r="E162">
+        <v>2</v>
+      </c>
+      <c r="F162" t="str">
+        <f t="shared" si="5"/>
+        <v>2,150</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B163" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C163" s="80">
+        <v>158</v>
+      </c>
+      <c r="D163" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,158</v>
+      </c>
+      <c r="E163">
+        <v>2</v>
+      </c>
+      <c r="F163" t="str">
+        <f t="shared" si="5"/>
+        <v>2,158</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B164" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C164" s="80">
+        <v>160</v>
+      </c>
+      <c r="D164" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,160</v>
+      </c>
+      <c r="E164">
+        <v>2</v>
+      </c>
+      <c r="F164" t="str">
+        <f t="shared" si="5"/>
+        <v>2,160</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B165" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C165" s="80">
+        <v>163</v>
+      </c>
+      <c r="D165" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,163</v>
+      </c>
+      <c r="E165">
+        <v>2</v>
+      </c>
+      <c r="F165" t="str">
+        <f t="shared" si="5"/>
+        <v>2,163</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B166" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C166" s="80">
+        <v>164</v>
+      </c>
+      <c r="D166" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,164</v>
+      </c>
+      <c r="E166">
+        <v>2</v>
+      </c>
+      <c r="F166" t="str">
+        <f t="shared" si="5"/>
+        <v>2,164</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B167" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C167" s="80">
+        <v>165</v>
+      </c>
+      <c r="D167" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,165</v>
+      </c>
+      <c r="E167">
+        <v>2</v>
+      </c>
+      <c r="F167" t="str">
+        <f t="shared" si="5"/>
+        <v>2,165</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B168" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C168" s="80">
+        <v>166</v>
+      </c>
+      <c r="D168" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,166</v>
+      </c>
+      <c r="E168">
+        <v>2</v>
+      </c>
+      <c r="F168" t="str">
+        <f t="shared" si="5"/>
+        <v>2,166</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B169" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C169" s="80">
+        <v>167</v>
+      </c>
+      <c r="D169" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,167</v>
+      </c>
+      <c r="E169">
+        <v>2</v>
+      </c>
+      <c r="F169" t="str">
+        <f t="shared" si="5"/>
+        <v>2,167</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B170" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C170" s="80">
+        <v>168</v>
+      </c>
+      <c r="D170" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,168</v>
+      </c>
+      <c r="E170">
+        <v>2</v>
+      </c>
+      <c r="F170" t="str">
+        <f t="shared" si="5"/>
+        <v>2,168</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B171" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C171" s="80">
+        <v>169</v>
+      </c>
+      <c r="D171" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,169</v>
+      </c>
+      <c r="E171">
+        <v>2</v>
+      </c>
+      <c r="F171" t="str">
+        <f t="shared" si="5"/>
+        <v>2,169</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B172" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C172" s="80">
+        <v>170</v>
+      </c>
+      <c r="D172" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,170</v>
+      </c>
+      <c r="E172">
+        <v>2</v>
+      </c>
+      <c r="F172" t="str">
+        <f t="shared" si="5"/>
+        <v>2,170</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B173" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C173" s="80">
+        <v>171</v>
+      </c>
+      <c r="D173" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,171</v>
+      </c>
+      <c r="E173">
+        <v>2</v>
+      </c>
+      <c r="F173" t="str">
+        <f t="shared" si="5"/>
+        <v>2,171</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B174" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C174" s="80">
+        <v>172</v>
+      </c>
+      <c r="D174" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,172</v>
+      </c>
+      <c r="E174">
+        <v>2</v>
+      </c>
+      <c r="F174" t="str">
+        <f t="shared" si="5"/>
+        <v>2,172</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B175" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C175" s="80">
+        <v>173</v>
+      </c>
+      <c r="D175" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,173</v>
+      </c>
+      <c r="E175">
+        <v>2</v>
+      </c>
+      <c r="F175" t="str">
+        <f t="shared" si="5"/>
+        <v>2,173</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B176" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C176" s="80">
+        <v>174</v>
+      </c>
+      <c r="D176" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,174</v>
+      </c>
+      <c r="E176">
+        <v>2</v>
+      </c>
+      <c r="F176" t="str">
+        <f t="shared" si="5"/>
+        <v>2,174</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B177" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C177" s="80">
+        <v>175</v>
+      </c>
+      <c r="D177" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,175</v>
+      </c>
+      <c r="E177">
+        <v>2</v>
+      </c>
+      <c r="F177" t="str">
+        <f t="shared" si="5"/>
+        <v>2,175</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B178" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C178" s="80">
+        <v>176</v>
+      </c>
+      <c r="D178" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,176</v>
+      </c>
+      <c r="E178">
+        <v>2</v>
+      </c>
+      <c r="F178" t="str">
+        <f t="shared" si="5"/>
+        <v>2,176</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B179" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C179" s="80">
+        <v>179</v>
+      </c>
+      <c r="D179" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,179</v>
+      </c>
+      <c r="E179">
+        <v>2</v>
+      </c>
+      <c r="F179" t="str">
+        <f t="shared" si="5"/>
+        <v>2,179</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B180" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C180" s="80">
+        <v>180</v>
+      </c>
+      <c r="D180" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,180</v>
+      </c>
+      <c r="E180">
+        <v>2</v>
+      </c>
+      <c r="F180" t="str">
+        <f t="shared" si="5"/>
+        <v>2,180</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B181" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C181" s="80">
+        <v>181</v>
+      </c>
+      <c r="D181" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,181</v>
+      </c>
+      <c r="E181">
+        <v>2</v>
+      </c>
+      <c r="F181" t="str">
+        <f t="shared" si="5"/>
+        <v>2,181</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B182" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C182" s="80">
+        <v>399</v>
+      </c>
+      <c r="D182" t="str">
+        <f t="shared" si="4"/>
+        <v>DNTW,399</v>
+      </c>
+      <c r="E182">
+        <v>2</v>
+      </c>
+      <c r="F182" t="str">
+        <f t="shared" si="5"/>
+        <v>2,399</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B183" s="76" t="s">
+        <v>492</v>
+      </c>
+      <c r="C183" s="80">
+        <v>557</v>
+      </c>
+      <c r="D183" t="str">
+        <f t="shared" si="4"/>
+        <v>CNKD,557</v>
+      </c>
+      <c r="E183">
+        <v>3</v>
+      </c>
+      <c r="F183" t="str">
+        <f t="shared" si="5"/>
+        <v>3,557</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B184" s="76" t="s">
+        <v>492</v>
+      </c>
+      <c r="C184" s="80">
+        <v>757</v>
+      </c>
+      <c r="D184" t="str">
+        <f t="shared" si="4"/>
+        <v>CNKD,757</v>
+      </c>
+      <c r="E184">
+        <v>3</v>
+      </c>
+      <c r="F184" t="str">
+        <f t="shared" si="5"/>
+        <v>3,757</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B185" s="76" t="s">
+        <v>492</v>
+      </c>
+      <c r="C185" s="80">
+        <v>857</v>
+      </c>
+      <c r="D185" t="str">
+        <f t="shared" si="4"/>
+        <v>CNKD,857</v>
+      </c>
+      <c r="E185">
+        <v>3</v>
+      </c>
+      <c r="F185" t="str">
+        <f t="shared" si="5"/>
+        <v>3,857</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B186" s="76" t="s">
+        <v>346</v>
+      </c>
+      <c r="C186" s="80">
+        <v>151</v>
+      </c>
+      <c r="D186" t="str">
+        <f t="shared" si="4"/>
+        <v>ĐTNN,151</v>
+      </c>
+      <c r="E186">
+        <v>4</v>
+      </c>
+      <c r="F186" t="str">
+        <f t="shared" si="5"/>
+        <v>4,151</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B187" s="76" t="s">
+        <v>346</v>
+      </c>
+      <c r="C187" s="80">
+        <v>152</v>
+      </c>
+      <c r="D187" t="str">
+        <f t="shared" si="4"/>
+        <v>ĐTNN,152</v>
+      </c>
+      <c r="E187">
+        <v>4</v>
+      </c>
+      <c r="F187" t="str">
+        <f t="shared" si="5"/>
+        <v>4,152</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B188" s="76" t="s">
+        <v>346</v>
+      </c>
+      <c r="C188" s="80">
+        <v>161</v>
+      </c>
+      <c r="D188" t="str">
+        <f t="shared" si="4"/>
+        <v>ĐTNN,161</v>
+      </c>
+      <c r="E188">
+        <v>4</v>
+      </c>
+      <c r="F188" t="str">
+        <f t="shared" si="5"/>
+        <v>4,161</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B189" s="76" t="s">
+        <v>346</v>
+      </c>
+      <c r="C189" s="80">
+        <v>162</v>
+      </c>
+      <c r="D189" t="str">
+        <f t="shared" si="4"/>
+        <v>ĐTNN,162</v>
+      </c>
+      <c r="E189">
+        <v>4</v>
+      </c>
+      <c r="F189" t="str">
+        <f t="shared" si="5"/>
+        <v>4,162</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B190" s="76" t="s">
+        <v>346</v>
+      </c>
+      <c r="C190" s="80">
+        <v>551</v>
+      </c>
+      <c r="D190" t="str">
+        <f t="shared" si="4"/>
+        <v>ĐTNN,551</v>
+      </c>
+      <c r="E190">
+        <v>4</v>
+      </c>
+      <c r="F190" t="str">
+        <f t="shared" si="5"/>
+        <v>4,551</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B191" s="76" t="s">
+        <v>346</v>
+      </c>
+      <c r="C191" s="80">
+        <v>552</v>
+      </c>
+      <c r="D191" t="str">
+        <f t="shared" si="4"/>
+        <v>ĐTNN,552</v>
+      </c>
+      <c r="E191">
+        <v>4</v>
+      </c>
+      <c r="F191" t="str">
+        <f t="shared" si="5"/>
+        <v>4,552</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B192" s="76" t="s">
+        <v>346</v>
+      </c>
+      <c r="C192" s="80">
+        <v>561</v>
+      </c>
+      <c r="D192" t="str">
+        <f t="shared" si="4"/>
+        <v>ĐTNN,561</v>
+      </c>
+      <c r="E192">
+        <v>4</v>
+      </c>
+      <c r="F192" t="str">
+        <f t="shared" si="5"/>
+        <v>4,561</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B193" s="76" t="s">
+        <v>346</v>
+      </c>
+      <c r="C193" s="80">
+        <v>562</v>
+      </c>
+      <c r="D193" t="str">
+        <f t="shared" si="4"/>
+        <v>ĐTNN,562</v>
+      </c>
+      <c r="E193">
+        <v>4</v>
+      </c>
+      <c r="F193" t="str">
+        <f t="shared" si="5"/>
+        <v>4,562</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B194" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C194" s="80">
+        <v>153</v>
+      </c>
+      <c r="D194" t="str">
+        <f t="shared" si="4"/>
+        <v>NQD,153</v>
+      </c>
+      <c r="E194">
+        <v>5</v>
+      </c>
+      <c r="F194" t="str">
+        <f t="shared" si="5"/>
+        <v>5,153</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B195" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C195" s="80">
+        <v>154</v>
+      </c>
+      <c r="D195" t="str">
+        <f t="shared" ref="D195:D258" si="6">B195&amp;","&amp;C195</f>
+        <v>NQD,154</v>
+      </c>
+      <c r="E195">
+        <v>5</v>
+      </c>
+      <c r="F195" t="str">
+        <f t="shared" ref="F195:F258" si="7">E195&amp;","&amp;C195</f>
+        <v>5,154</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B196" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C196" s="80">
+        <v>159</v>
+      </c>
+      <c r="D196" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,159</v>
+      </c>
+      <c r="E196">
+        <v>5</v>
+      </c>
+      <c r="F196" t="str">
+        <f t="shared" si="7"/>
+        <v>5,159</v>
+      </c>
+    </row>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B197" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C197" s="80">
+        <v>182</v>
+      </c>
+      <c r="D197" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,182</v>
+      </c>
+      <c r="E197">
+        <v>5</v>
+      </c>
+      <c r="F197" t="str">
+        <f t="shared" si="7"/>
+        <v>5,182</v>
+      </c>
+    </row>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B198" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C198" s="80">
+        <v>183</v>
+      </c>
+      <c r="D198" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,183</v>
+      </c>
+      <c r="E198">
+        <v>5</v>
+      </c>
+      <c r="F198" t="str">
+        <f t="shared" si="7"/>
+        <v>5,183</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B199" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C199" s="80">
+        <v>184</v>
+      </c>
+      <c r="D199" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,184</v>
+      </c>
+      <c r="E199">
+        <v>5</v>
+      </c>
+      <c r="F199" t="str">
+        <f t="shared" si="7"/>
+        <v>5,184</v>
+      </c>
+    </row>
+    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B200" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C200" s="80">
+        <v>185</v>
+      </c>
+      <c r="D200" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,185</v>
+      </c>
+      <c r="E200">
+        <v>5</v>
+      </c>
+      <c r="F200" t="str">
+        <f t="shared" si="7"/>
+        <v>5,185</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B201" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C201" s="80">
+        <v>186</v>
+      </c>
+      <c r="D201" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,186</v>
+      </c>
+      <c r="E201">
+        <v>5</v>
+      </c>
+      <c r="F201" t="str">
+        <f t="shared" si="7"/>
+        <v>5,186</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B202" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C202" s="80">
+        <v>187</v>
+      </c>
+      <c r="D202" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,187</v>
+      </c>
+      <c r="E202">
+        <v>5</v>
+      </c>
+      <c r="F202" t="str">
+        <f t="shared" si="7"/>
+        <v>5,187</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B203" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C203" s="80">
+        <v>188</v>
+      </c>
+      <c r="D203" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,188</v>
+      </c>
+      <c r="E203">
+        <v>5</v>
+      </c>
+      <c r="F203" t="str">
+        <f t="shared" si="7"/>
+        <v>5,188</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B204" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C204" s="80">
+        <v>189</v>
+      </c>
+      <c r="D204" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,189</v>
+      </c>
+      <c r="E204">
+        <v>5</v>
+      </c>
+      <c r="F204" t="str">
+        <f t="shared" si="7"/>
+        <v>5,189</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B205" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C205" s="80">
+        <v>190</v>
+      </c>
+      <c r="D205" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,190</v>
+      </c>
+      <c r="E205">
+        <v>5</v>
+      </c>
+      <c r="F205" t="str">
+        <f t="shared" si="7"/>
+        <v>5,190</v>
+      </c>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B206" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C206" s="80">
+        <v>191</v>
+      </c>
+      <c r="D206" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,191</v>
+      </c>
+      <c r="E206">
+        <v>5</v>
+      </c>
+      <c r="F206" t="str">
+        <f t="shared" si="7"/>
+        <v>5,191</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B207" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C207" s="80">
+        <v>192</v>
+      </c>
+      <c r="D207" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,192</v>
+      </c>
+      <c r="E207">
+        <v>5</v>
+      </c>
+      <c r="F207" t="str">
+        <f t="shared" si="7"/>
+        <v>5,192</v>
+      </c>
+    </row>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B208" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C208" s="80">
+        <v>193</v>
+      </c>
+      <c r="D208" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,193</v>
+      </c>
+      <c r="E208">
+        <v>5</v>
+      </c>
+      <c r="F208" t="str">
+        <f t="shared" si="7"/>
+        <v>5,193</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B209" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C209" s="80">
+        <v>194</v>
+      </c>
+      <c r="D209" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,194</v>
+      </c>
+      <c r="E209">
+        <v>5</v>
+      </c>
+      <c r="F209" t="str">
+        <f t="shared" si="7"/>
+        <v>5,194</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B210" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C210" s="80">
+        <v>195</v>
+      </c>
+      <c r="D210" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,195</v>
+      </c>
+      <c r="E210">
+        <v>5</v>
+      </c>
+      <c r="F210" t="str">
+        <f t="shared" si="7"/>
+        <v>5,195</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B211" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C211" s="80">
+        <v>196</v>
+      </c>
+      <c r="D211" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,196</v>
+      </c>
+      <c r="E211">
+        <v>5</v>
+      </c>
+      <c r="F211" t="str">
+        <f t="shared" si="7"/>
+        <v>5,196</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B212" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C212" s="80">
+        <v>197</v>
+      </c>
+      <c r="D212" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,197</v>
+      </c>
+      <c r="E212">
+        <v>5</v>
+      </c>
+      <c r="F212" t="str">
+        <f t="shared" si="7"/>
+        <v>5,197</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B213" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C213" s="80">
+        <v>198</v>
+      </c>
+      <c r="D213" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,198</v>
+      </c>
+      <c r="E213">
+        <v>5</v>
+      </c>
+      <c r="F213" t="str">
+        <f t="shared" si="7"/>
+        <v>5,198</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B214" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C214" s="80">
+        <v>199</v>
+      </c>
+      <c r="D214" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,199</v>
+      </c>
+      <c r="E214">
+        <v>5</v>
+      </c>
+      <c r="F214" t="str">
+        <f t="shared" si="7"/>
+        <v>5,199</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B215" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C215" s="80">
+        <v>200</v>
+      </c>
+      <c r="D215" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,200</v>
+      </c>
+      <c r="E215">
+        <v>5</v>
+      </c>
+      <c r="F215" t="str">
+        <f t="shared" si="7"/>
+        <v>5,200</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B216" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C216" s="80">
+        <v>201</v>
+      </c>
+      <c r="D216" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,201</v>
+      </c>
+      <c r="E216">
+        <v>5</v>
+      </c>
+      <c r="F216" t="str">
+        <f t="shared" si="7"/>
+        <v>5,201</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B217" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C217" s="80">
+        <v>202</v>
+      </c>
+      <c r="D217" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,202</v>
+      </c>
+      <c r="E217">
+        <v>5</v>
+      </c>
+      <c r="F217" t="str">
+        <f t="shared" si="7"/>
+        <v>5,202</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B218" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C218" s="80">
+        <v>203</v>
+      </c>
+      <c r="D218" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,203</v>
+      </c>
+      <c r="E218">
+        <v>5</v>
+      </c>
+      <c r="F218" t="str">
+        <f t="shared" si="7"/>
+        <v>5,203</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B219" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C219" s="80">
+        <v>204</v>
+      </c>
+      <c r="D219" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,204</v>
+      </c>
+      <c r="E219">
+        <v>5</v>
+      </c>
+      <c r="F219" t="str">
+        <f t="shared" si="7"/>
+        <v>5,204</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B220" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C220" s="80">
+        <v>205</v>
+      </c>
+      <c r="D220" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,205</v>
+      </c>
+      <c r="E220">
+        <v>5</v>
+      </c>
+      <c r="F220" t="str">
+        <f t="shared" si="7"/>
+        <v>5,205</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B221" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C221" s="80">
+        <v>206</v>
+      </c>
+      <c r="D221" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,206</v>
+      </c>
+      <c r="E221">
+        <v>5</v>
+      </c>
+      <c r="F221" t="str">
+        <f t="shared" si="7"/>
+        <v>5,206</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B222" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C222" s="80">
+        <v>207</v>
+      </c>
+      <c r="D222" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,207</v>
+      </c>
+      <c r="E222">
+        <v>5</v>
+      </c>
+      <c r="F222" t="str">
+        <f t="shared" si="7"/>
+        <v>5,207</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B223" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C223" s="80">
+        <v>516</v>
+      </c>
+      <c r="D223" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,516</v>
+      </c>
+      <c r="E223">
+        <v>5</v>
+      </c>
+      <c r="F223" t="str">
+        <f t="shared" si="7"/>
+        <v>5,516</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B224" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C224" s="80">
+        <v>517</v>
+      </c>
+      <c r="D224" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,517</v>
+      </c>
+      <c r="E224">
+        <v>5</v>
+      </c>
+      <c r="F224" t="str">
+        <f t="shared" si="7"/>
+        <v>5,517</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B225" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C225" s="80">
+        <v>518</v>
+      </c>
+      <c r="D225" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,518</v>
+      </c>
+      <c r="E225">
+        <v>5</v>
+      </c>
+      <c r="F225" t="str">
+        <f t="shared" si="7"/>
+        <v>5,518</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B226" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C226" s="80">
+        <v>519</v>
+      </c>
+      <c r="D226" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,519</v>
+      </c>
+      <c r="E226">
+        <v>5</v>
+      </c>
+      <c r="F226" t="str">
+        <f t="shared" si="7"/>
+        <v>5,519</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B227" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C227" s="80">
+        <v>520</v>
+      </c>
+      <c r="D227" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,520</v>
+      </c>
+      <c r="E227">
+        <v>5</v>
+      </c>
+      <c r="F227" t="str">
+        <f t="shared" si="7"/>
+        <v>5,520</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B228" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C228" s="80">
+        <v>521</v>
+      </c>
+      <c r="D228" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,521</v>
+      </c>
+      <c r="E228">
+        <v>5</v>
+      </c>
+      <c r="F228" t="str">
+        <f t="shared" si="7"/>
+        <v>5,521</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B229" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C229" s="80">
+        <v>522</v>
+      </c>
+      <c r="D229" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,522</v>
+      </c>
+      <c r="E229">
+        <v>5</v>
+      </c>
+      <c r="F229" t="str">
+        <f t="shared" si="7"/>
+        <v>5,522</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B230" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C230" s="80">
+        <v>523</v>
+      </c>
+      <c r="D230" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,523</v>
+      </c>
+      <c r="E230">
+        <v>5</v>
+      </c>
+      <c r="F230" t="str">
+        <f t="shared" si="7"/>
+        <v>5,523</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B231" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C231" s="80">
+        <v>524</v>
+      </c>
+      <c r="D231" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,524</v>
+      </c>
+      <c r="E231">
+        <v>5</v>
+      </c>
+      <c r="F231" t="str">
+        <f t="shared" si="7"/>
+        <v>5,524</v>
+      </c>
+    </row>
+    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B232" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C232" s="80">
+        <v>525</v>
+      </c>
+      <c r="D232" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,525</v>
+      </c>
+      <c r="E232">
+        <v>5</v>
+      </c>
+      <c r="F232" t="str">
+        <f t="shared" si="7"/>
+        <v>5,525</v>
+      </c>
+    </row>
+    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B233" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C233" s="80">
+        <v>526</v>
+      </c>
+      <c r="D233" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,526</v>
+      </c>
+      <c r="E233">
+        <v>5</v>
+      </c>
+      <c r="F233" t="str">
+        <f t="shared" si="7"/>
+        <v>5,526</v>
+      </c>
+    </row>
+    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B234" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C234" s="80">
+        <v>527</v>
+      </c>
+      <c r="D234" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,527</v>
+      </c>
+      <c r="E234">
+        <v>5</v>
+      </c>
+      <c r="F234" t="str">
+        <f t="shared" si="7"/>
+        <v>5,527</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B235" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C235" s="80">
+        <v>528</v>
+      </c>
+      <c r="D235" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,528</v>
+      </c>
+      <c r="E235">
+        <v>5</v>
+      </c>
+      <c r="F235" t="str">
+        <f t="shared" si="7"/>
+        <v>5,528</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B236" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C236" s="80">
+        <v>529</v>
+      </c>
+      <c r="D236" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,529</v>
+      </c>
+      <c r="E236">
+        <v>5</v>
+      </c>
+      <c r="F236" t="str">
+        <f t="shared" si="7"/>
+        <v>5,529</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B237" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C237" s="80">
+        <v>530</v>
+      </c>
+      <c r="D237" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,530</v>
+      </c>
+      <c r="E237">
+        <v>5</v>
+      </c>
+      <c r="F237" t="str">
+        <f t="shared" si="7"/>
+        <v>5,530</v>
+      </c>
+    </row>
+    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B238" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C238" s="80">
+        <v>531</v>
+      </c>
+      <c r="D238" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,531</v>
+      </c>
+      <c r="E238">
+        <v>5</v>
+      </c>
+      <c r="F238" t="str">
+        <f t="shared" si="7"/>
+        <v>5,531</v>
+      </c>
+    </row>
+    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B239" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C239" s="80">
+        <v>532</v>
+      </c>
+      <c r="D239" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,532</v>
+      </c>
+      <c r="E239">
+        <v>5</v>
+      </c>
+      <c r="F239" t="str">
+        <f t="shared" si="7"/>
+        <v>5,532</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B240" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C240" s="80">
+        <v>533</v>
+      </c>
+      <c r="D240" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,533</v>
+      </c>
+      <c r="E240">
+        <v>5</v>
+      </c>
+      <c r="F240" t="str">
+        <f t="shared" si="7"/>
+        <v>5,533</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B241" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C241" s="80">
+        <v>534</v>
+      </c>
+      <c r="D241" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,534</v>
+      </c>
+      <c r="E241">
+        <v>5</v>
+      </c>
+      <c r="F241" t="str">
+        <f t="shared" si="7"/>
+        <v>5,534</v>
+      </c>
+    </row>
+    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B242" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C242" s="80">
+        <v>535</v>
+      </c>
+      <c r="D242" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,535</v>
+      </c>
+      <c r="E242">
+        <v>5</v>
+      </c>
+      <c r="F242" t="str">
+        <f t="shared" si="7"/>
+        <v>5,535</v>
+      </c>
+    </row>
+    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B243" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C243" s="80">
+        <v>536</v>
+      </c>
+      <c r="D243" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,536</v>
+      </c>
+      <c r="E243">
+        <v>5</v>
+      </c>
+      <c r="F243" t="str">
+        <f t="shared" si="7"/>
+        <v>5,536</v>
+      </c>
+    </row>
+    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B244" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C244" s="80">
+        <v>537</v>
+      </c>
+      <c r="D244" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,537</v>
+      </c>
+      <c r="E244">
+        <v>5</v>
+      </c>
+      <c r="F244" t="str">
+        <f t="shared" si="7"/>
+        <v>5,537</v>
+      </c>
+    </row>
+    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B245" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C245" s="80">
+        <v>538</v>
+      </c>
+      <c r="D245" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,538</v>
+      </c>
+      <c r="E245">
+        <v>5</v>
+      </c>
+      <c r="F245" t="str">
+        <f t="shared" si="7"/>
+        <v>5,538</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B246" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C246" s="80">
+        <v>539</v>
+      </c>
+      <c r="D246" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,539</v>
+      </c>
+      <c r="E246">
+        <v>5</v>
+      </c>
+      <c r="F246" t="str">
+        <f t="shared" si="7"/>
+        <v>5,539</v>
+      </c>
+    </row>
+    <row r="247" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B247" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C247" s="80">
+        <v>540</v>
+      </c>
+      <c r="D247" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,540</v>
+      </c>
+      <c r="E247">
+        <v>5</v>
+      </c>
+      <c r="F247" t="str">
+        <f t="shared" si="7"/>
+        <v>5,540</v>
+      </c>
+    </row>
+    <row r="248" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B248" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C248" s="80">
+        <v>553</v>
+      </c>
+      <c r="D248" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,553</v>
+      </c>
+      <c r="E248">
+        <v>5</v>
+      </c>
+      <c r="F248" t="str">
+        <f t="shared" si="7"/>
+        <v>5,553</v>
+      </c>
+    </row>
+    <row r="249" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B249" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C249" s="80">
+        <v>554</v>
+      </c>
+      <c r="D249" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,554</v>
+      </c>
+      <c r="E249">
+        <v>5</v>
+      </c>
+      <c r="F249" t="str">
+        <f t="shared" si="7"/>
+        <v>5,554</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B250" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C250" s="80">
+        <v>555</v>
+      </c>
+      <c r="D250" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,555</v>
+      </c>
+      <c r="E250">
+        <v>5</v>
+      </c>
+      <c r="F250" t="str">
+        <f t="shared" si="7"/>
+        <v>5,555</v>
+      </c>
+    </row>
+    <row r="251" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B251" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C251" s="80">
+        <v>556</v>
+      </c>
+      <c r="D251" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,556</v>
+      </c>
+      <c r="E251">
+        <v>5</v>
+      </c>
+      <c r="F251" t="str">
+        <f t="shared" si="7"/>
+        <v>5,556</v>
+      </c>
+    </row>
+    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B252" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C252" s="80">
+        <v>559</v>
+      </c>
+      <c r="D252" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,559</v>
+      </c>
+      <c r="E252">
+        <v>5</v>
+      </c>
+      <c r="F252" t="str">
+        <f t="shared" si="7"/>
+        <v>5,559</v>
+      </c>
+    </row>
+    <row r="253" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B253" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C253" s="80">
+        <v>716</v>
+      </c>
+      <c r="D253" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,716</v>
+      </c>
+      <c r="E253">
+        <v>5</v>
+      </c>
+      <c r="F253" t="str">
+        <f t="shared" si="7"/>
+        <v>5,716</v>
+      </c>
+    </row>
+    <row r="254" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B254" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C254" s="80">
+        <v>717</v>
+      </c>
+      <c r="D254" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,717</v>
+      </c>
+      <c r="E254">
+        <v>5</v>
+      </c>
+      <c r="F254" t="str">
+        <f t="shared" si="7"/>
+        <v>5,717</v>
+      </c>
+    </row>
+    <row r="255" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B255" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C255" s="80">
+        <v>718</v>
+      </c>
+      <c r="D255" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,718</v>
+      </c>
+      <c r="E255">
+        <v>5</v>
+      </c>
+      <c r="F255" t="str">
+        <f t="shared" si="7"/>
+        <v>5,718</v>
+      </c>
+    </row>
+    <row r="256" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B256" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C256" s="80">
+        <v>719</v>
+      </c>
+      <c r="D256" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,719</v>
+      </c>
+      <c r="E256">
+        <v>5</v>
+      </c>
+      <c r="F256" t="str">
+        <f t="shared" si="7"/>
+        <v>5,719</v>
+      </c>
+    </row>
+    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B257" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C257" s="80">
+        <v>720</v>
+      </c>
+      <c r="D257" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,720</v>
+      </c>
+      <c r="E257">
+        <v>5</v>
+      </c>
+      <c r="F257" t="str">
+        <f t="shared" si="7"/>
+        <v>5,720</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B258" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C258" s="80">
+        <v>721</v>
+      </c>
+      <c r="D258" t="str">
+        <f t="shared" si="6"/>
+        <v>NQD,721</v>
+      </c>
+      <c r="E258">
+        <v>5</v>
+      </c>
+      <c r="F258" t="str">
+        <f t="shared" si="7"/>
+        <v>5,721</v>
+      </c>
+    </row>
+    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B259" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C259" s="80">
+        <v>722</v>
+      </c>
+      <c r="D259" t="str">
+        <f t="shared" ref="D259:D270" si="8">B259&amp;","&amp;C259</f>
+        <v>NQD,722</v>
+      </c>
+      <c r="E259">
+        <v>5</v>
+      </c>
+      <c r="F259" t="str">
+        <f t="shared" ref="F259:F270" si="9">E259&amp;","&amp;C259</f>
+        <v>5,722</v>
+      </c>
+    </row>
+    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B260" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C260" s="80">
+        <v>723</v>
+      </c>
+      <c r="D260" t="str">
+        <f t="shared" si="8"/>
+        <v>NQD,723</v>
+      </c>
+      <c r="E260">
+        <v>5</v>
+      </c>
+      <c r="F260" t="str">
+        <f t="shared" si="9"/>
+        <v>5,723</v>
+      </c>
+    </row>
+    <row r="261" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B261" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C261" s="80">
+        <v>724</v>
+      </c>
+      <c r="D261" t="str">
+        <f t="shared" si="8"/>
+        <v>NQD,724</v>
+      </c>
+      <c r="E261">
+        <v>5</v>
+      </c>
+      <c r="F261" t="str">
+        <f t="shared" si="9"/>
+        <v>5,724</v>
+      </c>
+    </row>
+    <row r="262" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B262" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C262" s="80">
+        <v>754</v>
+      </c>
+      <c r="D262" t="str">
+        <f t="shared" si="8"/>
+        <v>NQD,754</v>
+      </c>
+      <c r="E262">
+        <v>5</v>
+      </c>
+      <c r="F262" t="str">
+        <f t="shared" si="9"/>
+        <v>5,754</v>
+      </c>
+    </row>
+    <row r="263" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B263" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C263" s="80">
+        <v>755</v>
+      </c>
+      <c r="D263" t="str">
+        <f t="shared" si="8"/>
+        <v>NQD,755</v>
+      </c>
+      <c r="E263">
+        <v>5</v>
+      </c>
+      <c r="F263" t="str">
+        <f t="shared" si="9"/>
+        <v>5,755</v>
+      </c>
+    </row>
+    <row r="264" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B264" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C264" s="80">
+        <v>756</v>
+      </c>
+      <c r="D264" t="str">
+        <f t="shared" si="8"/>
+        <v>NQD,756</v>
+      </c>
+      <c r="E264">
+        <v>5</v>
+      </c>
+      <c r="F264" t="str">
+        <f t="shared" si="9"/>
+        <v>5,756</v>
+      </c>
+    </row>
+    <row r="265" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B265" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C265" s="80">
+        <v>759</v>
+      </c>
+      <c r="D265" t="str">
+        <f t="shared" si="8"/>
+        <v>NQD,759</v>
+      </c>
+      <c r="E265">
+        <v>5</v>
+      </c>
+      <c r="F265" t="str">
+        <f t="shared" si="9"/>
+        <v>5,759</v>
+      </c>
+    </row>
+    <row r="266" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B266" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C266" s="80">
+        <v>824</v>
+      </c>
+      <c r="D266" t="str">
+        <f t="shared" si="8"/>
+        <v>NQD,824</v>
+      </c>
+      <c r="E266">
+        <v>5</v>
+      </c>
+      <c r="F266" t="str">
+        <f t="shared" si="9"/>
+        <v>5,824</v>
+      </c>
+    </row>
+    <row r="267" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B267" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C267" s="80">
+        <v>825</v>
+      </c>
+      <c r="D267" t="str">
+        <f t="shared" si="8"/>
+        <v>NQD,825</v>
+      </c>
+      <c r="E267">
+        <v>5</v>
+      </c>
+      <c r="F267" t="str">
+        <f t="shared" si="9"/>
+        <v>5,825</v>
+      </c>
+    </row>
+    <row r="268" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B268" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C268" s="80">
+        <v>826</v>
+      </c>
+      <c r="D268" t="str">
+        <f t="shared" si="8"/>
+        <v>NQD,826</v>
+      </c>
+      <c r="E268">
+        <v>5</v>
+      </c>
+      <c r="F268" t="str">
+        <f t="shared" si="9"/>
+        <v>5,826</v>
+      </c>
+    </row>
+    <row r="269" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B269" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C269" s="80">
+        <v>854</v>
+      </c>
+      <c r="D269" t="str">
+        <f t="shared" si="8"/>
+        <v>NQD,854</v>
+      </c>
+      <c r="E269">
+        <v>5</v>
+      </c>
+      <c r="F269" t="str">
+        <f t="shared" si="9"/>
+        <v>5,854</v>
+      </c>
+    </row>
+    <row r="270" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B270" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C270" s="80">
+        <v>856</v>
+      </c>
+      <c r="D270" t="str">
+        <f t="shared" si="8"/>
+        <v>NQD,856</v>
+      </c>
+      <c r="E270">
+        <v>5</v>
+      </c>
+      <c r="F270" t="str">
+        <f t="shared" si="9"/>
+        <v>5,856</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:F270"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>